--- a/database/AN_pp/expdata/3004.xlsx
+++ b/database/AN_pp/expdata/3004.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CF2C899-EFCB-3941-9EA6-CAB43435A588}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB616684-B682-C246-A02B-008073D0AA2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="7120" windowWidth="28040" windowHeight="16440" xr2:uid="{4FF8947F-5ECC-5946-9A8C-9F2A7674DCA5}"/>
+    <workbookView xWindow="1420" yWindow="5700" windowWidth="28040" windowHeight="16440" xr2:uid="{4FF8947F-5ECC-5946-9A8C-9F2A7674DCA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,12 +126,8 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -141,64 +137,17 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -206,16 +155,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,358 +476,358 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="42" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>0.205952</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>8.1416800000000001E-3</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>1.7450899999999999E-3</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="4">
         <v>4.8850100000000002E-5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>2.3066800000000001</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>200</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>0.25409500000000002</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="4">
         <v>8.8904499999999994E-3</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>1.42344E-3</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="4">
         <v>1.7780900000000001E-5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>2.7785700000000002</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>200</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>0.30219200000000002</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="4">
         <v>1.8883E-2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>1.70192E-3</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="4">
         <v>5.6648899999999999E-5</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>2.98624</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>200</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>0.35267599999999999</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="4">
         <v>1.5927299999999998E-2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="4">
         <v>2.5980999999999999E-3</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="4">
         <v>2.70764E-4</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>2.91988</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>200</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>0.40281400000000001</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="4">
         <v>2.4628299999999999E-2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="4">
         <v>3.3549000000000001E-3</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="4">
         <v>3.20167E-4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>2.76763</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>200</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>0.452818</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="4">
         <v>3.4328999999999998E-2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="4">
         <v>5.8429500000000004E-3</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="4">
         <v>5.4926400000000005E-4</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>2.7729300000000001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>200</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>0.50262300000000004</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="4">
         <v>2.4468899999999998E-2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>9.1075600000000007E-3</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="4">
         <v>4.8937700000000004E-4</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>2.9009499999999999</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>200</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>0.55226900000000001</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="4">
         <v>4.6500500000000002E-3</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="4">
         <v>2.3305099999999999E-2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="4">
         <v>2.6970299999999999E-4</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>3.1167099999999999</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>200</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="17" thickBot="1">
-      <c r="A10" s="6">
+      <c r="K9" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3">
         <v>0.60941900000000004</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="4">
         <v>5.4379200000000003E-2</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="4">
         <v>3.8383800000000003E-2</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="4">
         <v>1.0875800000000001E-3</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>3.51831</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>200</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="6" t="s">
         <v>0</v>
       </c>
     </row>

--- a/database/AN_pp/expdata/3004.xlsx
+++ b/database/AN_pp/expdata/3004.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6D14966-AC60-F64D-BC3C-5F96FFC70D5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBE334E-146F-CC42-831F-8F2F631A7756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{090E8ED5-3069-4044-B0D1-9A9DFC4B55C3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{090E8ED5-3069-4044-B0D1-9A9DFC4B55C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,8 +76,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,8 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,47 +435,47 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0.20599999999999999</v>
       </c>
@@ -499,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>0.254</v>
       </c>
@@ -534,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>0.30199999999999999</v>
       </c>
@@ -569,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>0.35299999999999998</v>
       </c>
@@ -604,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>0.40300000000000002</v>
       </c>
@@ -639,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>0.45300000000000001</v>
       </c>
@@ -674,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>0.503</v>
       </c>
@@ -709,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>0.55200000000000005</v>
       </c>
@@ -744,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>0.60899999999999999</v>
       </c>

--- a/database/AN_pp/expdata/3004.xlsx
+++ b/database/AN_pp/expdata/3004.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBE334E-146F-CC42-831F-8F2F631A7756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853E5C62-A5FC-FB45-9B2F-536AF2F28286}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{090E8ED5-3069-4044-B0D1-9A9DFC4B55C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{090E8ED5-3069-4044-B0D1-9A9DFC4B55C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -477,19 +477,19 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>0.20599999999999999</v>
+        <v>0.205952</v>
       </c>
       <c r="B2">
-        <v>8.0999999999999996E-3</v>
+        <v>8.1416800000000001E-3</v>
       </c>
       <c r="C2">
-        <v>1.6999999999999999E-3</v>
+        <v>1.7450899999999999E-3</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.8850100000000002E-5</v>
       </c>
       <c r="E2">
-        <v>2.3069999999999999</v>
+        <v>2.3066800000000001</v>
       </c>
       <c r="F2">
         <v>200</v>
@@ -512,19 +512,19 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>0.254</v>
+        <v>0.25409500000000002</v>
       </c>
       <c r="B3">
-        <v>8.8999999999999999E-3</v>
+        <v>8.8904499999999994E-3</v>
       </c>
       <c r="C3">
-        <v>1.4E-3</v>
+        <v>1.42344E-3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.7780900000000001E-5</v>
       </c>
       <c r="E3">
-        <v>2.7789999999999999</v>
+        <v>2.7785700000000002</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -547,19 +547,19 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>0.30199999999999999</v>
+        <v>0.30219200000000002</v>
       </c>
       <c r="B4">
-        <v>1.89E-2</v>
+        <v>1.8883E-2</v>
       </c>
       <c r="C4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.70192E-3</v>
       </c>
       <c r="D4">
-        <v>1E-4</v>
+        <v>5.6648899999999999E-5</v>
       </c>
       <c r="E4">
-        <v>2.9860000000000002</v>
+        <v>2.98624</v>
       </c>
       <c r="F4">
         <v>200</v>
@@ -582,19 +582,19 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>0.35299999999999998</v>
+        <v>0.35267599999999999</v>
       </c>
       <c r="B5">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5927299999999998E-2</v>
       </c>
       <c r="C5">
-        <v>2.5999999999999999E-3</v>
+        <v>2.5980999999999999E-3</v>
       </c>
       <c r="D5">
-        <v>2.9999999999999997E-4</v>
+        <v>2.70764E-4</v>
       </c>
       <c r="E5">
-        <v>2.92</v>
+        <v>2.91988</v>
       </c>
       <c r="F5">
         <v>200</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>0.40300000000000002</v>
+        <v>0.40281400000000001</v>
       </c>
       <c r="B6">
-        <v>2.46E-2</v>
+        <v>2.4628299999999999E-2</v>
       </c>
       <c r="C6">
-        <v>3.3999999999999998E-3</v>
+        <v>3.3549000000000001E-3</v>
       </c>
       <c r="D6">
-        <v>2.9999999999999997E-4</v>
+        <v>3.20167E-4</v>
       </c>
       <c r="E6">
-        <v>2.7679999999999998</v>
+        <v>2.76763</v>
       </c>
       <c r="F6">
         <v>200</v>
@@ -652,19 +652,19 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>0.45300000000000001</v>
+        <v>0.452818</v>
       </c>
       <c r="B7">
-        <v>3.4299999999999997E-2</v>
+        <v>3.4328999999999998E-2</v>
       </c>
       <c r="C7">
-        <v>5.7999999999999996E-3</v>
+        <v>5.8429500000000004E-3</v>
       </c>
       <c r="D7">
-        <v>5.0000000000000001E-4</v>
+        <v>5.4926400000000005E-4</v>
       </c>
       <c r="E7">
-        <v>2.7730000000000001</v>
+        <v>2.7729300000000001</v>
       </c>
       <c r="F7">
         <v>200</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>0.503</v>
+        <v>0.50262300000000004</v>
       </c>
       <c r="B8">
-        <v>2.4500000000000001E-2</v>
+        <v>2.4468899999999998E-2</v>
       </c>
       <c r="C8">
-        <v>9.1000000000000004E-3</v>
+        <v>9.1075600000000007E-3</v>
       </c>
       <c r="D8">
-        <v>5.0000000000000001E-4</v>
+        <v>4.8937700000000004E-4</v>
       </c>
       <c r="E8">
-        <v>2.9009999999999998</v>
+        <v>2.9009499999999999</v>
       </c>
       <c r="F8">
         <v>200</v>
@@ -722,19 +722,19 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>0.55200000000000005</v>
+        <v>0.55226900000000001</v>
       </c>
       <c r="B9">
-        <v>4.7000000000000002E-3</v>
+        <v>4.6500500000000002E-3</v>
       </c>
       <c r="C9">
-        <v>2.3300000000000001E-2</v>
+        <v>2.3305099999999999E-2</v>
       </c>
       <c r="D9">
-        <v>2.9999999999999997E-4</v>
+        <v>2.6970299999999999E-4</v>
       </c>
       <c r="E9">
-        <v>3.117</v>
+        <v>3.1167099999999999</v>
       </c>
       <c r="F9">
         <v>200</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>0.60899999999999999</v>
+        <v>0.60941900000000004</v>
       </c>
       <c r="B10">
-        <v>5.4399999999999997E-2</v>
+        <v>5.4379200000000003E-2</v>
       </c>
       <c r="C10">
-        <v>3.8399999999999997E-2</v>
+        <v>3.8383800000000003E-2</v>
       </c>
       <c r="D10">
-        <v>1.1000000000000001E-3</v>
+        <v>1.0875800000000001E-3</v>
       </c>
       <c r="E10">
-        <v>3.5179999999999998</v>
+        <v>3.51831</v>
       </c>
       <c r="F10">
         <v>200</v>
